--- a/tests/test_plan_library_item.xlsx
+++ b/tests/test_plan_library_item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Desktop\Intermediate Software Development0315\8. Activities\Module_01\given_files\activity_1\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/359ac0af8a5f7d1d/Documents/intermediate_software_development/Activities/comp-2327-activity-1/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94801D8B-F184-4C7C-AC17-1E2ABA18B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{94801D8B-F184-4C7C-AC17-1E2ABA18B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{402EBE38-AA35-4147-83C0-256746CDA2F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D9DD509-55B1-455D-8036-16809AD15960}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D9DD509-55B1-455D-8036-16809AD15960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Attribute  set to input values.</t>
+  </si>
+  <si>
+    <t>David Nesca</t>
   </si>
 </sst>
 </file>
@@ -1109,22 +1112,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADEBCC4-BB44-48CD-B9AB-1E2FD3EE0EEB}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="73.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="1.45">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="1.8">
       <c r="B2" s="2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -1136,14 +1139,16 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1152,10 +1157,10 @@
       </c>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11">
         <v>1</v>
@@ -1190,7 +1195,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="12">
         <v>2</v>
@@ -1205,7 +1210,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="12">
         <v>3</v>
@@ -1220,7 +1225,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="11">
         <v>4</v>
@@ -1235,7 +1240,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <v>5</v>
       </c>
@@ -1249,7 +1254,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>6</v>
       </c>
@@ -1263,7 +1268,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <v>7</v>
       </c>
@@ -1277,7 +1282,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11">
         <v>10</v>
       </c>
@@ -1287,7 +1292,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>11</v>
       </c>
@@ -1297,7 +1302,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <v>12</v>
       </c>
@@ -1307,7 +1312,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>13</v>
       </c>
@@ -1317,7 +1322,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>14</v>
       </c>
@@ -1327,7 +1332,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>15</v>
       </c>
@@ -1337,7 +1342,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>16</v>
       </c>
@@ -1347,7 +1352,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>17</v>
       </c>
@@ -1357,7 +1362,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>18</v>
       </c>
@@ -1367,7 +1372,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>19</v>
       </c>
@@ -1377,7 +1382,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>20</v>
       </c>
@@ -1387,7 +1392,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
         <v>6</v>
       </c>
@@ -1608,15 +1613,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee0e594b-5dc6-49aa-9be8-f17bb89b127c">
@@ -1627,14 +1623,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37F01E9C-39D8-491B-950E-769C54FF39B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37F01E9C-39D8-491B-950E-769C54FF39B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee0e594b-5dc6-49aa-9be8-f17bb89b127c"/>
+    <ds:schemaRef ds:uri="b80edf0c-bd47-4bae-8c19-89fc2af9398f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3194B8C0-471E-4E12-8338-7B9268783B6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93494D4A-B25F-4AE9-9242-3524F3518EDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee0e594b-5dc6-49aa-9be8-f17bb89b127c"/>
+    <ds:schemaRef ds:uri="b80edf0c-bd47-4bae-8c19-89fc2af9398f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93494D4A-B25F-4AE9-9242-3524F3518EDF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3194B8C0-471E-4E12-8338-7B9268783B6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/test_plan_library_item.xlsx
+++ b/tests/test_plan_library_item.xlsx
@@ -2,36 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/359ac0af8a5f7d1d/Documents/intermediate_software_development/Activities/comp-2327-activity-1/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{94801D8B-F184-4C7C-AC17-1E2ABA18B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{402EBE38-AA35-4147-83C0-256746CDA2F9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{1595E0BE-CEE0-46BF-9EBD-12309469C378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C316623-290F-4F0B-ADED-484494921259}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D9DD509-55B1-455D-8036-16809AD15960}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -41,116 +25,114 @@
     <author>Laurie Cutrone</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{2226E156-6D9C-4BD2-9E83-E8BB8514281B}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Student Name</t>
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{2B16E308-A1AB-44EA-9D6D-419919C54559}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Name of the class containing the methods to which the unit test plan applies.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{3AFD6792-4858-4432-8D1A-2CB895E262E1}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>A unique identifier for each test case.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{E95CB908-567C-490A-A2E2-01BADA61CAE4}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Name of the method being tested.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{8F1D4BE8-86F7-4F2B-9CF2-29A2362B0A96}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>A brief description of what the test case is intended to verify.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{81A699C9-D13C-46A8-BDED-9E9372CFC271}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Any requirements or conditions that must be met before the test is executed.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{A9B43634-DF5E-47A8-B694-39F3725B8514}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Laurie Cutrone:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>Laurie Cutrone:
 Inputs required for the test, including both valid and invalid data to test how the unit handles edge cases.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{CACC1002-2768-4B77-8035-B63564EBC973}">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>The outcome that should result from the test case if the unit is functioning correctly.</t>
         </r>
@@ -160,95 +142,145 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+  <si>
+    <t>Software Development Team - Unit Test Plan</t>
+  </si>
+  <si>
+    <t>Developer:</t>
+  </si>
+  <si>
+    <t>Class Name:</t>
+  </si>
+  <si>
+    <t>LibraryItem</t>
+  </si>
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
+    <t>Method being Tested</t>
+  </si>
+  <si>
+    <t>Condition being Tested</t>
+  </si>
+  <si>
     <t>Preconditions</t>
   </si>
   <si>
+    <t>Method Inputs</t>
+  </si>
+  <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Class Name:</t>
-  </si>
-  <si>
-    <t>Developer:</t>
-  </si>
-  <si>
-    <t>Method being Tested</t>
-  </si>
-  <si>
-    <t>Add more rows as necessary</t>
-  </si>
-  <si>
-    <t>Software Development Team - Unit Test Plan</t>
-  </si>
-  <si>
     <t>__init__</t>
   </si>
   <si>
-    <t>Method Inputs</t>
-  </si>
-  <si>
-    <t>Condition being Tested</t>
+    <t>Attribute set to input values.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>title="The Hobbit"; author="J. R. R. Tolkien"; genre=Genre.FANTASY; item_id=101; is_borrowed=False</t>
+  </si>
+  <si>
+    <t>Object constructed; attributes equal inputs.</t>
   </si>
   <si>
     <t>Exception raised when title is blank</t>
   </si>
   <si>
+    <t>title="   "; author="Some Author"; genre=Genre.FICTION; item_id=1; is_borrowed=False</t>
+  </si>
+  <si>
+    <t>ValueError with message "Title cannot be blank."</t>
+  </si>
+  <si>
     <t>Exception raised when author is blank</t>
   </si>
   <si>
+    <t>title="Some Title"; author="   "; genre=Genre.FICTION; item_id=1; is_borrowed=False</t>
+  </si>
+  <si>
+    <t>ValueError with message "Author cannot be blank."</t>
+  </si>
+  <si>
     <t>Exception raised when invalid Genre</t>
   </si>
   <si>
+    <t>title="Some Title"; author="Some Author"; genre="FICTION"; item_id=1; is_borrowed=False</t>
+  </si>
+  <si>
+    <t>ValueError with message "Genre must be a valid Genre."</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
+    <t>returns title attribute</t>
+  </si>
+  <si>
+    <t>A valid LibraryItem exists</t>
+  </si>
+  <si>
+    <t>Returns "The Hobbit"</t>
+  </si>
+  <si>
     <t>author</t>
   </si>
   <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>returns title attribute</t>
-  </si>
-  <si>
     <t>returns author attribute</t>
   </si>
   <si>
+    <t>Returns "J. R. R. Tolkien"</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
     <t>returns Genre attribute</t>
   </si>
   <si>
-    <t>LibraryItem</t>
-  </si>
-  <si>
-    <t>Attribute  set to input values.</t>
+    <t>Returns Genre.FANTASY</t>
+  </si>
+  <si>
+    <t>Exception raised when item_id not numeric</t>
+  </si>
+  <si>
+    <t>title="Some Title"; author="Some Author"; genre=Genre.NON_FICTION; item_id="ABC"; is_borrowed=False</t>
+  </si>
+  <si>
+    <t>ValueError with message "Item ID must be numeric."</t>
+  </si>
+  <si>
+    <t>Exception raised when is_borrowed not boolean</t>
+  </si>
+  <si>
+    <t>title="Some Title"; author="Some Author"; genre=Genre.NON_FICTION; item_id=5; is_borrowed="yes"</t>
+  </si>
+  <si>
+    <t>ValueError with message "Is Borrowed must be a boolean value."</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>returns item_id attribute</t>
+  </si>
+  <si>
+    <t>Returns 101</t>
+  </si>
+  <si>
+    <t>is_borrowed</t>
+  </si>
+  <si>
+    <t>returns is_borrowed attribute</t>
+  </si>
+  <si>
+    <t>Returns False</t>
   </si>
   <si>
     <t>David Nesca</t>
@@ -258,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,29 +307,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="72"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -346,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -427,10 +438,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -444,10 +455,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -456,7 +467,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -466,38 +479,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -506,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -515,54 +506,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -584,7 +563,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -606,7 +585,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -628,7 +607,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -650,7 +629,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -672,8 +651,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -715,79 +694,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B0B8C9F-A34D-46F3-9066-19FDAF76B033}" name="Table1" displayName="Table1" ref="B6:G24" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B6:G17" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B4BB882C-2019-4F87-8900-426FA9A11FFB}" name="Test Case ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1904C92F-9639-4229-AA4E-4C4DEAF21EEE}" name="Method being Tested" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4E480EB6-99FB-4F51-98B5-D5BE13327E8C}" name="Condition being Tested" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5381561B-09C5-439D-999E-CD8E013F9561}" name="Preconditions" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{645704DE-22F5-4239-BEB6-F4252A1F2823}" name="Method Inputs" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{101F480E-86C3-4E60-AA1E-2FCAD389E35F}" name="Expected Result" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Method being Tested" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Condition being Tested" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Preconditions" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Method Inputs" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Expected Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1109,11 +1024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADEBCC4-BB44-48CD-B9AB-1E2FD3EE0EEB}">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,34 +1041,32 @@
     <col min="7" max="7" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="1.8">
-      <c r="B2" s="2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="2"/>
       <c r="C2" s="13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="18"/>
     </row>
@@ -1162,22 +1075,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,14 +1099,20 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -1201,14 +1120,20 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -1216,14 +1141,20 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -1231,183 +1162,166 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1415,257 +1329,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B3B6B51C940774DBF92367B1D1A75F0" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80d4f13eaa95653e2ff902bb880fefc3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee0e594b-5dc6-49aa-9be8-f17bb89b127c" xmlns:ns3="b80edf0c-bd47-4bae-8c19-89fc2af9398f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ababe2f621e4b192c84b1cec6edec4f" ns2:_="" ns3:_="">
-    <xsd:import namespace="ee0e594b-5dc6-49aa-9be8-f17bb89b127c"/>
-    <xsd:import namespace="b80edf0c-bd47-4bae-8c19-89fc2af9398f"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee0e594b-5dc6-49aa-9be8-f17bb89b127c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a87413a6-e425-463b-b224-a4b5e77e4f1f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b80edf0c-bd47-4bae-8c19-89fc2af9398f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ba3eec92-f266-4a8d-8096-36b89e0d127f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b80edf0c-bd47-4bae-8c19-89fc2af9398f">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee0e594b-5dc6-49aa-9be8-f17bb89b127c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b80edf0c-bd47-4bae-8c19-89fc2af9398f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37F01E9C-39D8-491B-950E-769C54FF39B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee0e594b-5dc6-49aa-9be8-f17bb89b127c"/>
-    <ds:schemaRef ds:uri="b80edf0c-bd47-4bae-8c19-89fc2af9398f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93494D4A-B25F-4AE9-9242-3524F3518EDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ee0e594b-5dc6-49aa-9be8-f17bb89b127c"/>
-    <ds:schemaRef ds:uri="b80edf0c-bd47-4bae-8c19-89fc2af9398f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3194B8C0-471E-4E12-8338-7B9268783B6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>